--- a/data/trans_orig/P34B02-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P34B02-Edad-trans_orig.xlsx
@@ -660,7 +660,7 @@
         <v>0.5062114804637047</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>1.437577942499276</v>
+        <v>1.437577942499277</v>
       </c>
     </row>
     <row r="5">
@@ -671,31 +671,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3598341412935968</v>
+        <v>0.3691784834147433</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4643565516854071</v>
+        <v>0.4603134390851319</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.384649599433666</v>
+        <v>1.356679702339982</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2167089991209729</v>
+        <v>0.2126084115675668</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3108255418720985</v>
+        <v>0.3114669466497384</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.8412598730268672</v>
+        <v>0.9112829832232505</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.310692551101156</v>
+        <v>0.3158904543776539</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4113360861306394</v>
+        <v>0.4180134560757803</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.226224243199869</v>
+        <v>1.238054205001303</v>
       </c>
     </row>
     <row r="6">
@@ -706,31 +706,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6106519901142865</v>
+        <v>0.633569202251732</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.76995234895644</v>
+        <v>0.7743538275957306</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.073025573986653</v>
+        <v>2.036466381188645</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.428891773764442</v>
+        <v>0.4046584592382479</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5422194212712409</v>
+        <v>0.5514492065844576</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1.475314630101586</v>
+        <v>1.463193655683581</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4651898298554728</v>
+        <v>0.4847476492202555</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6090403961977682</v>
+        <v>0.598775596824741</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.673559671438725</v>
+        <v>1.69062003526596</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.3234169194442297</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.6783107399718286</v>
+        <v>0.6783107399718288</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.2862887189533517</v>
@@ -769,7 +769,7 @@
         <v>0.5088171376576389</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.9251095202765357</v>
+        <v>0.9251095202765355</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2494723026120165</v>
+        <v>0.2500579304830935</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5612312255478319</v>
+        <v>0.5573640339625529</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.9705756008506007</v>
+        <v>0.9824591743592448</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1656004706959608</v>
+        <v>0.1605458458736554</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2449700345958692</v>
+        <v>0.2416656837730642</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.5487472360935314</v>
+        <v>0.5459943600558907</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2342577517874344</v>
+        <v>0.2252185802459189</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.4244528200323681</v>
+        <v>0.4325419645142639</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.7990833735600047</v>
+        <v>0.7916835294246997</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.441799046755216</v>
+        <v>0.4324395824816804</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8425163791721199</v>
+        <v>0.8349227816182118</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.426276030676649</v>
+        <v>1.44074880668907</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3519845552942154</v>
+        <v>0.343621880834328</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4181262761638961</v>
+        <v>0.4275093898513732</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.8533190967114611</v>
+        <v>0.841626126018167</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3598031113578445</v>
+        <v>0.3528772335297349</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.5874070955989104</v>
+        <v>0.603620189162852</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>1.078765871096274</v>
+        <v>1.071755067279358</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>0.4151277302323729</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.786186548212949</v>
+        <v>0.7861865482129488</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.2605861546918418</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2563189595487396</v>
+        <v>0.2507692177696245</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3457345215711718</v>
+        <v>0.3378333123931978</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.968117842216519</v>
+        <v>0.9839155321961206</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1371198658515397</v>
+        <v>0.139865021597045</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.3265333478864353</v>
+        <v>0.3199348803226753</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.6890313865236446</v>
+        <v>0.6872586569539023</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2118314743182442</v>
+        <v>0.2074880623550629</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3602908769464602</v>
+        <v>0.3554872422463236</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.867390874931407</v>
+        <v>0.8696853106274275</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4364429173254586</v>
+        <v>0.4275416154796456</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.553049141589119</v>
+        <v>0.5535168599784031</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.331147084071407</v>
+        <v>1.327001514104344</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2805516368418244</v>
+        <v>0.283029793422143</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5381910113849565</v>
+        <v>0.528571461250705</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8980851183032217</v>
+        <v>0.9042284888270309</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3157082241599379</v>
+        <v>0.3183093676138086</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.5041447024793158</v>
+        <v>0.501077698773125</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.077195237293201</v>
+        <v>1.074012773994061</v>
       </c>
     </row>
     <row r="13">
@@ -969,7 +969,7 @@
         <v>0.3906846700410156</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.8529523684470298</v>
+        <v>0.8529523684470297</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.2294287442109517</v>
@@ -987,7 +987,7 @@
         <v>0.3277155317245855</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.8205537912279175</v>
+        <v>0.8205537912279176</v>
       </c>
     </row>
     <row r="14">
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2202330856323181</v>
+        <v>0.2206361476291509</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2956385459267058</v>
+        <v>0.2907531174981849</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7284887515429813</v>
+        <v>0.739801440575089</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1601345395396277</v>
+        <v>0.1487815744486045</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2005724776349677</v>
+        <v>0.2004610274462327</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.7016130243724621</v>
+        <v>0.7003285111540435</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2089048377694578</v>
+        <v>0.2093117120025783</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2686402288673582</v>
+        <v>0.2704270437750755</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.7509146529069872</v>
+        <v>0.7394185787598002</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4182051518340597</v>
+        <v>0.4119090854288154</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5128261783878986</v>
+        <v>0.5173821983017262</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9999026129729679</v>
+        <v>1.009897485335641</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3319219189769885</v>
+        <v>0.3316027677660836</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3530467336908069</v>
+        <v>0.344918276757679</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8968775398173199</v>
+        <v>0.8806402548492646</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3441582397605909</v>
+        <v>0.3492423620811071</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4006989304799063</v>
+        <v>0.40397166012924</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.9213075098351088</v>
+        <v>0.9064114205246793</v>
       </c>
     </row>
     <row r="16">
@@ -1087,7 +1087,7 @@
         <v>0.247237030494463</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.6838509419109458</v>
+        <v>0.6838509419109461</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.252605222545186</v>
@@ -1096,7 +1096,7 @@
         <v>0.2597958865387506</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.74059814562361</v>
+        <v>0.7405981456236101</v>
       </c>
     </row>
     <row r="17">
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1478691209571511</v>
+        <v>0.1415204872688889</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1848207530137194</v>
+        <v>0.1897451426014379</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.6650457453358517</v>
+        <v>0.6650133738054174</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1924905801399867</v>
+        <v>0.1869593338173461</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1532810634829627</v>
+        <v>0.157014059999883</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.599444866404033</v>
+        <v>0.5884176961248188</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1889029366313559</v>
+        <v>0.1870421247472206</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1895979856400239</v>
+        <v>0.1883011044761381</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.6563893744341606</v>
+        <v>0.656077353574941</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3387094774178321</v>
+        <v>0.3316145669354986</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3812192529122401</v>
+        <v>0.3932245007980638</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9306480010980926</v>
+        <v>0.9466197809174658</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4001090719955233</v>
+        <v>0.4041958755224883</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.379340706497721</v>
+        <v>0.3718528401105387</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.7900202213692779</v>
+        <v>0.7829878994548081</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3372593435856516</v>
+        <v>0.3336697839552278</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3453490601178721</v>
+        <v>0.3296458107268927</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.8282621555092572</v>
+        <v>0.8212074086483263</v>
       </c>
     </row>
     <row r="19">
@@ -1187,7 +1187,7 @@
         <v>0.2388449198618146</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.5428179694042077</v>
+        <v>0.5428179694042078</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>0.1508836138480674</v>
@@ -1196,7 +1196,7 @@
         <v>0.2487415717726128</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.5620247345015239</v>
+        <v>0.5620247345015238</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>0.2489343095388286</v>
@@ -1205,7 +1205,7 @@
         <v>0.2440950547267307</v>
       </c>
       <c r="K19" s="5" t="n">
-        <v>0.5527854760540861</v>
+        <v>0.5527854760540862</v>
       </c>
     </row>
     <row r="20">
@@ -1216,31 +1216,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2230076652531947</v>
+        <v>0.2204642252871882</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1393359019465707</v>
+        <v>0.1418646735564736</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.4246776075669723</v>
+        <v>0.418397083787691</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.08376237329725464</v>
+        <v>0.0846010445177544</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1555314397566421</v>
+        <v>0.1462361775556299</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.4741797241497915</v>
+        <v>0.4761217550094767</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1683807673808475</v>
+        <v>0.171867796957664</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1736908381143306</v>
+        <v>0.1779134919638701</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.4742464309019798</v>
+        <v>0.469943269128214</v>
       </c>
     </row>
     <row r="21">
@@ -1251,31 +1251,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.5917832465020021</v>
+        <v>0.5860078831948885</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.383026018893012</v>
+        <v>0.3825721957466417</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.6925455740645214</v>
+        <v>0.6751097846867053</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2722547850900836</v>
+        <v>0.2555997114284233</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3892670508800643</v>
+        <v>0.3619580999214909</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.6790851741802298</v>
+        <v>0.6717644405885713</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3629805346906028</v>
+        <v>0.3593812584887165</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3418403033820427</v>
+        <v>0.3414574490530163</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.6315605629317965</v>
+        <v>0.6468146928130502</v>
       </c>
     </row>
     <row r="22">
@@ -1305,7 +1305,7 @@
         <v>0.1276034672505312</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.2257517478177732</v>
+        <v>0.2257517478177733</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.1146445770682316</v>
@@ -1314,7 +1314,7 @@
         <v>0.1244128091923341</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.2442844969489039</v>
+        <v>0.244284496948904</v>
       </c>
     </row>
     <row r="23">
@@ -1325,31 +1325,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.04521102516537102</v>
+        <v>0.048926664679547</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.05332160864514003</v>
+        <v>0.04430303117920105</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1829659021649894</v>
+        <v>0.1799074283188442</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.05733455634720576</v>
+        <v>0.05768570087795973</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.06646484394003528</v>
+        <v>0.06591113181015001</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.166472587187911</v>
+        <v>0.1671970579574575</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.06789515963650763</v>
+        <v>0.06450771359886194</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.07650213690826488</v>
+        <v>0.07696934103277994</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1911006618031825</v>
+        <v>0.1910719157484507</v>
       </c>
     </row>
     <row r="24">
@@ -1360,31 +1360,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2725464514161927</v>
+        <v>0.2970157122848498</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2808401633232127</v>
+        <v>0.2500695880406777</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3939126901294408</v>
+        <v>0.3999498549293781</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2112411890498403</v>
+        <v>0.20987411382347</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2228618575568435</v>
+        <v>0.2321498948701316</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2977941504459319</v>
+        <v>0.3004574327012233</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1843947801335404</v>
+        <v>0.1831530810726508</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2133435759079255</v>
+        <v>0.2053104843746698</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.3053902136125075</v>
+        <v>0.313808088736564</v>
       </c>
     </row>
     <row r="25">
@@ -1405,7 +1405,7 @@
         <v>0.423938737589067</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.9501782287602669</v>
+        <v>0.950178228760267</v>
       </c>
       <c r="F25" s="5" t="n">
         <v>0.2175815007192729</v>
@@ -1423,7 +1423,7 @@
         <v>0.3603207250359294</v>
       </c>
       <c r="K25" s="5" t="n">
-        <v>0.8183217700488281</v>
+        <v>0.8183217700488279</v>
       </c>
     </row>
     <row r="26">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.2778721968809071</v>
+        <v>0.2770400019328729</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.3794564016282427</v>
+        <v>0.376538852328421</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.876467589591779</v>
+        <v>0.874522756766363</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1859567487393572</v>
+        <v>0.1888586185857877</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2630156323023208</v>
+        <v>0.2619253919452068</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.6456999563393631</v>
+        <v>0.6494744083712859</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.2410394949020064</v>
+        <v>0.2422151974274276</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.3340829979843205</v>
+        <v>0.3295091142186534</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.7812330471202289</v>
+        <v>0.7761340014378343</v>
       </c>
     </row>
     <row r="27">
@@ -1469,31 +1469,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.3626461236477625</v>
+        <v>0.365132646328982</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.471102774821863</v>
+        <v>0.4720468236037105</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1.022196252888627</v>
+        <v>1.023675612908565</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.2539525227422185</v>
+        <v>0.2563126409218388</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.3349020796942643</v>
+        <v>0.3370257732317765</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.7409516570413082</v>
+        <v>0.7457584663968827</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.2944729536330025</v>
+        <v>0.2942201250669355</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.3887568179258006</v>
+        <v>0.3909516456277641</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.8616182989460447</v>
+        <v>0.8600832687569681</v>
       </c>
     </row>
     <row r="28">
